--- a/finals_scrim_stats.xlsx
+++ b/finals_scrim_stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cs\Competitions\Battlecode2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmall\Desktop\Battlecode2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C236559-B0DA-40F6-9DBD-7F57F2E29013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B70C510-31FF-455F-BDD8-8985CC98C7D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E072F6D-BF99-4245-9560-C6A488EAEBEF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E072F6D-BF99-4245-9560-C6A488EAEBEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>The High Ground</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>horsepaste</t>
+  </si>
+  <si>
+    <t>US/HS</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
   <dimension ref="A1:K361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -910,7 +913,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D16" s="13">
         <v>0</v>
